--- a/02_ETL/03_Data_Format/2. Excel/output_files/5output_pandas.xlsx
+++ b/02_ETL/03_Data_Format/2. Excel/output_files/5output_pandas.xlsx
@@ -466,44 +466,44 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5678</v>
+        <v>1234</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jenny Walters</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100-0006</t>
+          <t>100-0002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1725</v>
+        <v>1200</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>41298</v>
+        <v>41275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6789</v>
+        <v>5678</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samantha Donaldson</t>
+          <t>Jenny Walters</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100-0007</t>
+          <t>100-0006</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1995</v>
+        <v>1725</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>41305</v>
+        <v>41298</v>
       </c>
     </row>
   </sheetData>
